--- a/team_leader.xlsx
+++ b/team_leader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Partage Soc_Report_AMCS\AT\datas_kpi_dir_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D9D9B9-6422-4FD4-A6F8-A33B9DCF575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAF68D-3800-4E2D-AA2B-8231B6520DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>CARRETTO</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>BAROU</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -568,15 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -584,15 +589,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -600,7 +605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -608,7 +613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -616,7 +621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -624,7 +629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -632,7 +637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -640,7 +645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -648,7 +653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -656,7 +661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -664,7 +669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -672,7 +677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -680,7 +685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -688,7 +693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -696,7 +701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -704,7 +709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -712,7 +717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -720,7 +725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -728,7 +733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -736,7 +741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -744,7 +749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -752,7 +757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -760,7 +765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -768,7 +773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -776,7 +781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -784,7 +789,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -792,7 +797,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -800,7 +805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -808,7 +813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -816,7 +821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -824,7 +829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -832,7 +837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -840,7 +845,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -848,7 +853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -856,7 +861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -864,7 +869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -872,7 +877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -880,7 +885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -888,7 +893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -896,7 +901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -904,7 +909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -912,7 +917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -920,7 +925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -928,7 +933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -936,7 +941,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -944,7 +949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -952,7 +957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -960,7 +965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -968,7 +973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -976,7 +981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -984,7 +989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -992,7 +997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1048,7 +1053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>

--- a/team_leader.xlsx
+++ b/team_leader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Partage Soc_Report_AMCS\AT\datas_kpi_dir_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAF68D-3800-4E2D-AA2B-8231B6520DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D9D9B9-6422-4FD4-A6F8-A33B9DCF575D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>CARRETTO</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>BAROU</t>
-  </si>
-  <si>
-    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -571,17 +568,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -589,15 +584,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -605,7 +600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -613,7 +608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -621,7 +616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -629,7 +624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -637,7 +632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -645,7 +640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -653,7 +648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -661,7 +656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -669,7 +664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -677,7 +672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -685,7 +680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -693,7 +688,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -701,7 +696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -709,7 +704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -717,7 +712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -725,7 +720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -733,7 +728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -741,7 +736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -749,7 +744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -757,7 +752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -765,7 +760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -773,7 +768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -781,7 +776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -789,7 +784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -797,7 +792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -805,7 +800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -813,7 +808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -821,7 +816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -829,7 +824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -837,7 +832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -845,7 +840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -853,7 +848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -861,7 +856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -869,7 +864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -877,7 +872,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -885,7 +880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -893,7 +888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -901,7 +896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -909,7 +904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -917,7 +912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -925,7 +920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -933,7 +928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -941,7 +936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -949,7 +944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -957,7 +952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -965,7 +960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -973,7 +968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -981,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -989,7 +984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -997,7 +992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1021,7 +1016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1037,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1053,7 +1048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>70</v>
       </c>
